--- a/biology/Botanique/Allium_kermesinum/Allium_kermesinum.xlsx
+++ b/biology/Botanique/Allium_kermesinum/Allium_kermesinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium kermesinum est une espèce de plante bulbeuse vivace du genre Allium de la famille des Amaryllidacées, connue sous les noms anglais de crimson leek (littéralement poireau écarlate) ou Kamnik leek (poireau des Alpes Kamniques). Elle est endémique en Slovénie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium kermesinum a un long bulbe, avec des feuilles striées semblables à celles de la ciboulette. Les fleurs varient du rouge au rose et sont légèrement parfumées, rappelant l'ail. Il fleurit entre août et septembre. Il est endémique de Slovénie, où il pousse dans les Alpes kamniques[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium kermesinum a un long bulbe, avec des feuilles striées semblables à celles de la ciboulette. Les fleurs varient du rouge au rose et sont légèrement parfumées, rappelant l'ail. Il fleurit entre août et septembre. Il est endémique de Slovénie, où il pousse dans les Alpes kamniques
 </t>
         </is>
       </c>
